--- a/medicine/Enfance/François_Place_(écrivain)/François_Place_(écrivain).xlsx
+++ b/medicine/Enfance/François_Place_(écrivain)/François_Place_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+          <t>François_Place_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Place, né le 26 avril 1957[1] à Ézanville, dans le Val-d'Oise, est un écrivain et illustrateur français, principalement de littérature de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Place, né le 26 avril 1957 à Ézanville, dans le Val-d'Oise, est un écrivain et illustrateur français, principalement de littérature de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+          <t>François_Place_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite  d'un bac littéraire, il fait des études de communication visuelle à lʼécole Estienne[2] (1974-1977). Il travaille pendant quelques années comme illustrateur indépendant pour des studios de graphisme, dans la publicité[2], des journaux professionnels, puis pour des ouvrages jeunesse[2]. Ses premières illustrations de livres jeunesse datent de 1983[3], et paraissent dans la Bibliothèque rose chez Hachette, notamment des illustrations d'une demi-douzaine d'ouvrages de la Comtesse de Ségur. En 1985, il rencontre Pierre Marchand, éditeur de Gallimard Jeunesse, qui remarque ses dessins dʼadolescent. Il illustre une série de livres documentaires sur le thème des voyages et de la découverte du monde, et fait ses premiers pas dans lʼécriture[3]. Il contribue à dʼautres ouvrages documentaires, et commence à illustrer des romans, notamment ceux de Michael Morpurgo, Erik L'Homme ou Timothée de Fombelle[2], dont il illustre la célèbre série Tobie Lolness : le premier tome La Vie suspendue est récompensé de nombreux prix, dont le prix Sorcières 2006 et le grand prix de l'Imaginaire 2007.
-En 1992, paraît aux éditions Casterman Les Derniers Géants[3], qui reçoit le prix Sorcières dans la catégorie Album en 1993. Cette même année, l'ouvrage de l'auteur britannique Michael Morpurgo qu'il illustre, Le Roi de la forêt des brumes, obtient le prix Sorcières dans la catégorie Roman. Son travail d'illustrateur après de Michael Morpurgo se poursuit, et en 1995, leur ouvrage Le Naufrage de Zanzibar reçoit en Grande-Bretagne le Beefeater Children’s Novel. Puis leur ouvrage Le Royaume de Kensuké obtient le Children's book award en 2000, et l'année suivante, à nouveau le prix Sorcières dans la catégorie Roman, et le Prix Tam-Tam.
-Entre 1996 et 2000, il publie les trois tomes de lʼAtlas des géographes dʼOrbæ, un atlas imaginaire construit sur le principe de lʼalphabet. Le premier tome Du pays des amazones aux îles Indigo a reçu le prix Amerigo-Vespucci Jeunesse en 1997, et le grand prix de la foire du livre jeunesse de Bologne[3] en 1998. Un prix Sorcières « Spécial »[3] en 2001 récompense cette trilogie, prix décerné par les librairies spécialisées jeunesse et l'Association des bibliothécaires de France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite  d'un bac littéraire, il fait des études de communication visuelle à lʼécole Estienne (1974-1977). Il travaille pendant quelques années comme illustrateur indépendant pour des studios de graphisme, dans la publicité, des journaux professionnels, puis pour des ouvrages jeunesse. Ses premières illustrations de livres jeunesse datent de 1983, et paraissent dans la Bibliothèque rose chez Hachette, notamment des illustrations d'une demi-douzaine d'ouvrages de la Comtesse de Ségur. En 1985, il rencontre Pierre Marchand, éditeur de Gallimard Jeunesse, qui remarque ses dessins dʼadolescent. Il illustre une série de livres documentaires sur le thème des voyages et de la découverte du monde, et fait ses premiers pas dans lʼécriture. Il contribue à dʼautres ouvrages documentaires, et commence à illustrer des romans, notamment ceux de Michael Morpurgo, Erik L'Homme ou Timothée de Fombelle, dont il illustre la célèbre série Tobie Lolness : le premier tome La Vie suspendue est récompensé de nombreux prix, dont le prix Sorcières 2006 et le grand prix de l'Imaginaire 2007.
+En 1992, paraît aux éditions Casterman Les Derniers Géants, qui reçoit le prix Sorcières dans la catégorie Album en 1993. Cette même année, l'ouvrage de l'auteur britannique Michael Morpurgo qu'il illustre, Le Roi de la forêt des brumes, obtient le prix Sorcières dans la catégorie Roman. Son travail d'illustrateur après de Michael Morpurgo se poursuit, et en 1995, leur ouvrage Le Naufrage de Zanzibar reçoit en Grande-Bretagne le Beefeater Children’s Novel. Puis leur ouvrage Le Royaume de Kensuké obtient le Children's book award en 2000, et l'année suivante, à nouveau le prix Sorcières dans la catégorie Roman, et le Prix Tam-Tam.
+Entre 1996 et 2000, il publie les trois tomes de lʼAtlas des géographes dʼOrbæ, un atlas imaginaire construit sur le principe de lʼalphabet. Le premier tome Du pays des amazones aux îles Indigo a reçu le prix Amerigo-Vespucci Jeunesse en 1997, et le grand prix de la foire du livre jeunesse de Bologne en 1998. Un prix Sorcières « Spécial » en 2001 récompense cette trilogie, prix décerné par les librairies spécialisées jeunesse et l'Association des bibliothécaires de France.
 Cet atlas est prolongé en 2010 par Le Secret dʼOrbæ, qui reçoit lui aussi le grand prix de la foire du livre jeunesse de Bologne en 2012, dans la catégorie Fiction, cette fois, ainsi que le prix Imaginales 2012 de la Meilleure Illustration.
-En 2007, il reçoit pour la deuxième fois le prix Amerigo-Vespucci Jeunesse pour son ouvrage Le Roi des trois Orients, et le prix Baobab[2] pour La Fille des batailles.
+En 2007, il reçoit pour la deuxième fois le prix Amerigo-Vespucci Jeunesse pour son ouvrage Le Roi des trois Orients, et le prix Baobab pour La Fille des batailles.
 En 2008, François Place contribue au site internet jeunesse du Louvre, au côté des auteurs Benoît et Emmanuelle de Saint Chamas.
-En 2010, son premier roman jeunesse La Douane volante (Gallimard Jeunesse) est distingué « meilleur roman jeunesse »[4] de l'année par la revue Lire, dans son classement des Meilleurs livres de l'année, qui souligne : « Dans ce roman initiatique et fantastique, l'auteur des Derniers géants amène le lecteur à douter du réel et à laisser entrer dans sa vie la part du merveilleux, sombre et lumineux à la fois, comme un tableau de Vermeer[5] », et obtient, lui aussi, le grand prix de l'Imaginaire en 2011, dans la catégorie Roman francophone pour la jeunesse.
-Les originaux de François Place ont été exposés régulièrement, notamment avec le Centre de promotion du livre de jeunesse de Montreuil et avec la galerie Lʼart à la page[6]. Place aime les techniques à l'eau, c'est-à-dire qu'il privilégie l'encore et l'aquarelle pour créer ses illustrations[7].
-Il est la sélection française du Prix Hans-Christian-Andersen 2018, dans la catégorie Illustration[8], prix international danois. Il était également sélectionné pour l'édition précédente de 2016[9], et était finaliste du prix 2014[10].
-En 2023[11], il est sélectionné pour la septième fois (de 2015 à 2017, et de 2020 à 2023) pour le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren[12].
+En 2010, son premier roman jeunesse La Douane volante (Gallimard Jeunesse) est distingué « meilleur roman jeunesse » de l'année par la revue Lire, dans son classement des Meilleurs livres de l'année, qui souligne : « Dans ce roman initiatique et fantastique, l'auteur des Derniers géants amène le lecteur à douter du réel et à laisser entrer dans sa vie la part du merveilleux, sombre et lumineux à la fois, comme un tableau de Vermeer », et obtient, lui aussi, le grand prix de l'Imaginaire en 2011, dans la catégorie Roman francophone pour la jeunesse.
+Les originaux de François Place ont été exposés régulièrement, notamment avec le Centre de promotion du livre de jeunesse de Montreuil et avec la galerie Lʼart à la page. Place aime les techniques à l'eau, c'est-à-dire qu'il privilégie l'encore et l'aquarelle pour créer ses illustrations.
+Il est la sélection française du Prix Hans-Christian-Andersen 2018, dans la catégorie Illustration, prix international danois. Il était également sélectionné pour l'édition précédente de 2016, et était finaliste du prix 2014.
+En 2023, il est sélectionné pour la septième fois (de 2015 à 2017, et de 2020 à 2023) pour le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+          <t>François_Place_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,8 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Les Derniers Géants, Casterman, 1992, rééd. 2008. Traduit en américain par William Rodarmor: The Last Giants (Godine, 1993)
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Derniers Géants, Casterman, 1992, rééd. 2008. Traduit en américain par William Rodarmor: The Last Giants (Godine, 1993)
 édition augmentée, 2012
 Le Vieux Fou de dessin, Gallimard, 1997
 Atlas des géographes d'Orbæ (trilogie), Casterman
@@ -586,15 +605,83 @@
 Panique dans le Bayou, 2015
 Le carnaval des squelettes, 2015
 Le Dieu du tonnerre, 2015
-Tempête sur l'Atlantique, 2016
-Auteur
-Le camion fantôme, illustré par Christophe Besse, Hachette jeunesse, 1996
+Tempête sur l'Atlantique, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le camion fantôme, illustré par Christophe Besse, Hachette jeunesse, 1996
 L'Ombre du chasseur, petits contes de sagesse, illustré par Philippe Poirier, Albin Michel, 1997
 Et une bouteille de rhum, nouvelle parue dans Télérama no 2674 du 11/04/2001
-La Douane volante[5], Gallimard, 2010 (roman)
-Angel, L'indien blanc, Casterman, 2014 (roman)
-Illustrateur
-Les Deux Nigauds, Comtesse de Ségur, Bibliothèque Rose, Hachette, 1983
+La Douane volante, Gallimard, 2010 (roman)
+Angel, L'indien blanc, Casterman, 2014 (roman)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Deux Nigauds, Comtesse de Ségur, Bibliothèque Rose, Hachette, 1983
 Les Malheurs de Sophie, Comtesse de Ségur, id., 1983
 Quel amour d'enfant !, Comtesse de Ségur, id., 1983
 Jean qui grogne et Jean qui rit, Comtesse de Ségur, id., 1983
@@ -659,52 +746,156 @@
 Découverte Junior, Larousse-Gallimard, 1991
 Contes nomades, Catherine Gendrin, Rue du monde, 2011
 Exercices de styles, Raymond Queneau, Gallimard, 2002
-Gabriel, prisonnier des pirates, Sandrine Mirza, illustré avec Erwan Fagès, Gallimard Jeunesse, 2004
-Théâtre
-François Place a co-adapté deux de ses ouvrages au théâtre, et a écrit une troisième pièce.
+Gabriel, prisonnier des pirates, Sandrine Mirza, illustré avec Erwan Fagès, Gallimard Jeunesse, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>François Place a co-adapté deux de ses ouvrages au théâtre, et a écrit une troisième pièce.
 Les Derniers Géants, spectacle de marionnettes, compagnie Morisse (adaptation avec Christian Dente), 1994
 Grand Ours, spectacle de marionnettes, compagnie Morisse, 2001
-Les voyages de Ziyara, spectacle de conte, mise en scène Véronique Samakh, 2004
-Préfacier
-Christophe Meunier, Les géo-graphismes de Peter Sís : découvrir, explorer, rêver des espaces, Paris, L'Harmattan, 2015  (ISBN 9782343072920)
-Divers
-En 1995, il conçoit et écrit Rendez-vous conte, exposition en volume itinérante.
+Les voyages de Ziyara, spectacle de conte, mise en scène Véronique Samakh, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Préfacier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Christophe Meunier, Les géo-graphismes de Peter Sís : découvrir, explorer, rêver des espaces, Paris, L'Harmattan, 2015  (ISBN 9782343072920)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1995, il conçoit et écrit Rendez-vous conte, exposition en volume itinérante.
 Avec les auteurs Emmanuelle et Benoît de Saint Chamas il a réalisé le site internet du musée du Louvre destiné aux enfants (www.louvre.fr)
-François Place a réalisé en 2008 un carnet de visite pour l'Abbaye de Fontevraud[13]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+François Place a réalisé en 2008 un carnet de visite pour l'Abbaye de Fontevraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Liste non exhaustive
-1992 : Grand Prix SGDL du roman jeunesse[14] pour Les Derniers Géants
+1992 : Grand Prix SGDL du roman jeunesse pour Les Derniers Géants
 1993 : prix Sorcières catégorie Album pour Les Derniers Géants
 1993 : prix Sorcières catégorie Roman pour Le Roi de la forêt des brumes de Michael Morpurgo dont il est l'illustrateur
-1994 : (international) « Honour List »[15] de l' IBBY pour Les Derniers Géants
+1994 : (international) « Honour List » de l' IBBY pour Les Derniers Géants
 1995 :  Beefeater Children’s Novel pour Le Naufrage de Zanzibar de Michael Morpurgo dont il est l'illustrateur
 1997 : prix Amerigo-Vespucci Jeunesse du Festival international de géographie, pour le premier tome de Atlas des géographes dʼOrbæ : Du pays des amazones aux îles Indigo
 1998 :  grand prix de la foire du livre jeunesse de Bologne, catégorie Non-Fiction, pour le premier tome de Atlas des géographes dʼOrbæ : Du pays des amazones aux îles Indigo
@@ -721,43 +912,45 @@
 2007 : grand prix des jeunes lecteurs pour Tobie Lolness, tome 1, La Vie suspendue, id.
 2007 : prix Baobab pour La Fille des batailles
 2007 : prix Amerigo-Vespucci Jeunesse du Festival international de géographie pour Le Roi des trois Orients
-2010 : « Meilleur roman jeunesse »[4] de l'année pour La Douane volante, par la revue Lire, dans son classement des Meilleurs livres de l'année.
+2010 : « Meilleur roman jeunesse » de l'année pour La Douane volante, par la revue Lire, dans son classement des Meilleurs livres de l'année.
 2011 : grand prix de l'Imaginaire catégorie Roman francophone pour la jeunesse, pour La Douane volante
 2012 :  grand prix de la foire du livre jeunesse de Bologne, catégorie Fiction, pour Le secret dʼOrbæ
 2012 : prix Imaginales de la Meilleure Illustration pour Le secret dʼOrbæ
-2014 :  Finaliste du Prix Hans-Christian-Andersen, dans la catégorie Illustration[10]
-2016 :  Sélection française du Prix Hans-Christian-Andersen, dans la catégorie Illustration[9]
-2018 :  Sélection française du Prix Hans-Christian-Andersen, dans la catégorie Illustration[8]
+2014 :  Finaliste du Prix Hans-Christian-Andersen, dans la catégorie Illustration
+2016 :  Sélection française du Prix Hans-Christian-Andersen, dans la catégorie Illustration
+2018 :  Sélection française du Prix Hans-Christian-Andersen, dans la catégorie Illustration
 2020 : Prix Gulli-du-roman pour Alma, tome 1, et Le vent se lève
-2015 à 2017, et 2020 à 2023[11] :  Sélections pour le Prix commémoratif Astrid-Lindgren[12]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+2015 à 2017, et 2020 à 2023 :  Sélections pour le Prix commémoratif Astrid-Lindgren</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>François_Place_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Place_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Documentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
